--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.364689666666666</v>
+        <v>6.427515666666666</v>
       </c>
       <c r="H2">
-        <v>22.094069</v>
+        <v>19.282547</v>
       </c>
       <c r="I2">
-        <v>0.5165094431700068</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="J2">
-        <v>0.5165094431700069</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N2">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P2">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q2">
-        <v>329.1829708861777</v>
+        <v>278.1999473924387</v>
       </c>
       <c r="R2">
-        <v>2962.6467379756</v>
+        <v>2503.799526531949</v>
       </c>
       <c r="S2">
-        <v>0.3524646078608575</v>
+        <v>0.2666718234543302</v>
       </c>
       <c r="T2">
-        <v>0.3524646078608576</v>
+        <v>0.2666718234543302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.364689666666666</v>
+        <v>6.427515666666666</v>
       </c>
       <c r="H3">
-        <v>22.094069</v>
+        <v>19.282547</v>
       </c>
       <c r="I3">
-        <v>0.5165094431700068</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="J3">
-        <v>0.5165094431700069</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>55.897306</v>
       </c>
       <c r="O3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P3">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q3">
-        <v>137.2221039642349</v>
+        <v>119.7602700131535</v>
       </c>
       <c r="R3">
-        <v>1234.998935678114</v>
+        <v>1077.842430118382</v>
       </c>
       <c r="S3">
-        <v>0.1469272086991385</v>
+        <v>0.114797611865611</v>
       </c>
       <c r="T3">
-        <v>0.1469272086991385</v>
+        <v>0.114797611865611</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.364689666666666</v>
+        <v>6.427515666666666</v>
       </c>
       <c r="H4">
-        <v>22.094069</v>
+        <v>19.282547</v>
       </c>
       <c r="I4">
-        <v>0.5165094431700068</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="J4">
-        <v>0.5165094431700069</v>
+        <v>0.399676466497628</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N4">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P4">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q4">
-        <v>15.98694182715811</v>
+        <v>18.99411437696356</v>
       </c>
       <c r="R4">
-        <v>143.882476444423</v>
+        <v>170.947029392672</v>
       </c>
       <c r="S4">
-        <v>0.01711762661001074</v>
+        <v>0.01820703117768687</v>
       </c>
       <c r="T4">
-        <v>0.01711762661001074</v>
+        <v>0.01820703117768687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.489886</v>
       </c>
       <c r="I5">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="J5">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N5">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P5">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q5">
-        <v>81.79466549626666</v>
+        <v>79.20561512908468</v>
       </c>
       <c r="R5">
-        <v>736.1519894664</v>
+        <v>712.8505361617621</v>
       </c>
       <c r="S5">
-        <v>0.08757963579233921</v>
+        <v>0.07592347163351393</v>
       </c>
       <c r="T5">
-        <v>0.08757963579233921</v>
+        <v>0.07592347163351393</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.489886</v>
       </c>
       <c r="I6">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="J6">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>55.897306</v>
       </c>
       <c r="O6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P6">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q6">
         <v>34.09664862745733</v>
@@ -818,10 +818,10 @@
         <v>306.869837647116</v>
       </c>
       <c r="S6">
-        <v>0.0365081518509098</v>
+        <v>0.0326837425685752</v>
       </c>
       <c r="T6">
-        <v>0.0365081518509098</v>
+        <v>0.0326837425685752</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.489886</v>
       </c>
       <c r="I7">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="J7">
-        <v>0.128341138109364</v>
+        <v>0.1137908927671639</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N7">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O7">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P7">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q7">
-        <v>3.972400381284667</v>
+        <v>5.407767065237334</v>
       </c>
       <c r="R7">
-        <v>35.751603431562</v>
+        <v>48.66990358713601</v>
       </c>
       <c r="S7">
-        <v>0.00425335046611493</v>
+        <v>0.005183678565074763</v>
       </c>
       <c r="T7">
-        <v>0.004253350466114929</v>
+        <v>0.005183678565074764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.063925333333334</v>
+        <v>7.824318999999999</v>
       </c>
       <c r="H8">
-        <v>15.191776</v>
+        <v>23.472957</v>
       </c>
       <c r="I8">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="J8">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>44.69746666666666</v>
+        <v>43.28265566666667</v>
       </c>
       <c r="N8">
-        <v>134.0924</v>
+        <v>129.847967</v>
       </c>
       <c r="O8">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="P8">
-        <v>0.6823972194925493</v>
+        <v>0.667219228070094</v>
       </c>
       <c r="Q8">
-        <v>226.3446337891556</v>
+        <v>338.6573051031577</v>
       </c>
       <c r="R8">
-        <v>2037.1017041024</v>
+        <v>3047.915745928419</v>
       </c>
       <c r="S8">
-        <v>0.2423529758393525</v>
+        <v>0.3246239329822499</v>
       </c>
       <c r="T8">
-        <v>0.2423529758393526</v>
+        <v>0.3246239329822499</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.063925333333334</v>
+        <v>7.824318999999999</v>
       </c>
       <c r="H9">
-        <v>15.191776</v>
+        <v>23.472957</v>
       </c>
       <c r="I9">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="J9">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>55.897306</v>
       </c>
       <c r="O9">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="P9">
-        <v>0.2844618053784121</v>
+        <v>0.2872263480299067</v>
       </c>
       <c r="Q9">
-        <v>94.35326130616178</v>
+        <v>145.7861177948713</v>
       </c>
       <c r="R9">
-        <v>849.1793517554561</v>
+        <v>1312.075060153842</v>
       </c>
       <c r="S9">
-        <v>0.1010264448283638</v>
+        <v>0.1397449935957204</v>
       </c>
       <c r="T9">
-        <v>0.1010264448283639</v>
+        <v>0.1397449935957204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.063925333333334</v>
+        <v>7.824318999999999</v>
       </c>
       <c r="H10">
-        <v>15.191776</v>
+        <v>23.472957</v>
       </c>
       <c r="I10">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="J10">
-        <v>0.3551494187206293</v>
+        <v>0.486532640735208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.170755666666667</v>
+        <v>2.955125333333334</v>
       </c>
       <c r="N10">
-        <v>6.512267</v>
+        <v>8.865376000000001</v>
       </c>
       <c r="O10">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999943</v>
       </c>
       <c r="P10">
-        <v>0.03314097512903853</v>
+        <v>0.04555442389999944</v>
       </c>
       <c r="Q10">
-        <v>10.99254461291022</v>
+        <v>23.12184329298133</v>
       </c>
       <c r="R10">
-        <v>98.93290151619202</v>
+        <v>208.096589636832</v>
       </c>
       <c r="S10">
-        <v>0.01176999805291287</v>
+        <v>0.0221637141572378</v>
       </c>
       <c r="T10">
-        <v>0.01176999805291287</v>
+        <v>0.0221637141572378</v>
       </c>
     </row>
   </sheetData>
